--- a/biology/Botanique/Uvariopsis_korupensis/Uvariopsis_korupensis.xlsx
+++ b/biology/Botanique/Uvariopsis_korupensis/Uvariopsis_korupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uvariopsis korupensis Gereau &amp; Kenfack est une espèce d'arbustes de la famille des Annonaceae et du genre Uvariopsis[1], endémique du Cameroun. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uvariopsis korupensis Gereau &amp; Kenfack est une espèce d'arbustes de la famille des Annonaceae et du genre Uvariopsis, endémique du Cameroun. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste atteint de 6 à 15 m de hauteur et son tronc peut atteindre 14 cm de diamètre. Ses feuilles, pétiolées, sont robustes ; leur longueur varie ente 5 et 7 mm et leur épaisseur entre 4 et 6 mm. L’inflorescence est fasciculée et les fleurs sont portées principalement sur des bourrelets à la base du tronc à ras du sol, mais peuvent s’échelonner jusqu’à 3,8 m de la base[2]. Elles sont généralement de couleurs orange et crème[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste atteint de 6 à 15 m de hauteur et son tronc peut atteindre 14 cm de diamètre. Ses feuilles, pétiolées, sont robustes ; leur longueur varie ente 5 et 7 mm et leur épaisseur entre 4 et 6 mm. L’inflorescence est fasciculée et les fleurs sont portées principalement sur des bourrelets à la base du tronc à ras du sol, mais peuvent s’échelonner jusqu’à 3,8 m de la base. Elles sont généralement de couleurs orange et crème. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue au Cameroun et se développe dans les forêts à feuilles persistantes de la plaine entre 50 et 1 000 m d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue au Cameroun et se développe dans les forêts à feuilles persistantes de la plaine entre 50 et 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Dangers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uvariopsis korupensis n'est menacé par la déforestation pour l'agriculture qu'au mont Cameroun et à Bakossi. Elle occupe 36 km2 et elle est en déclin continu en raison de ces menaces[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uvariopsis korupensis n'est menacé par la déforestation pour l'agriculture qu'au mont Cameroun et à Bakossi. Elle occupe 36 km2 et elle est en déclin continu en raison de ces menaces.
 </t>
         </is>
       </c>
